--- a/actiTIMETEST/data/input.xlsx
+++ b/actiTIMETEST/data/input.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,25 +16,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>kishor</t>
-  </si>
-  <si>
-    <t>kishu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>homepagetitle</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>errmsg</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Username or Password is invalid. Please try again.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,37 +393,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/actiTIMETEST/data/input.xlsx
+++ b/actiTIMETEST/data/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Username or Password is invalid. Please try again.</t>
+  </si>
+  <si>
+    <t>asf</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,8 +475,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -481,31 +487,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
